--- a/factorielTest/factorialExcel.xlsx
+++ b/factorielTest/factorialExcel.xlsx
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.0856E-3</v>
+        <v>4.8478000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.2603000000000003E-3</v>
+        <v>2.5997999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.6862000000000001E-3</v>
+        <v>3.0406999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.9755999999999993E-3</v>
+        <v>1.8396299999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.4959000000000001E-3</v>
+        <v>1.8163600000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.0640000000000003E-3</v>
+        <v>3.7819999999999998E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.4048000000000004E-3</v>
+        <v>3.2566000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.3268999999999998E-3</v>
+        <v>4.3783999999999993E-3</v>
       </c>
     </row>
   </sheetData>
